--- a/StructureDefinition-lab-results.xlsx
+++ b/StructureDefinition-lab-results.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-11T14:30:36-05:00</t>
+    <t>2024-01-05T10:12:51-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lab-results.xlsx
+++ b/StructureDefinition-lab-results.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-05T10:12:51-05:00</t>
+    <t>2024-01-12T16:11:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lab-results.xlsx
+++ b/StructureDefinition-lab-results.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T16:11:38-05:00</t>
+    <t>2024-01-14T20:25:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lab-results.xlsx
+++ b/StructureDefinition-lab-results.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-14T20:25:13-05:00</t>
+    <t>2024-01-15T21:15:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lab-results.xlsx
+++ b/StructureDefinition-lab-results.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:15:59-05:00</t>
+    <t>2024-01-15T21:38:02-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lab-results.xlsx
+++ b/StructureDefinition-lab-results.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:38:02-05:00</t>
+    <t>2024-01-17T11:35:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lab-results.xlsx
+++ b/StructureDefinition-lab-results.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T11:35:10-05:00</t>
+    <t>2024-02-16T13:20:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
